--- a/clips/0.2.0/StructureDefinition-DiagnosticReport-cl-ips.xlsx
+++ b/clips/0.2.0/StructureDefinition-DiagnosticReport-cl-ips.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T08:36:05-03:00</t>
+    <t>2024-11-14T07:45:16-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
